--- a/panel_ols_summary_output.xlsx
+++ b/panel_ols_summary_output.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.08237179526699</v>
+        <v>86.08237179526702</v>
       </c>
       <c r="C2" t="n">
-        <v>22.84763848921495</v>
+        <v>22.84763848921496</v>
       </c>
       <c r="D2" t="n">
         <v>3.767670424052862</v>
@@ -504,14 +504,14 @@
         <v>0.0001778793975979465</v>
       </c>
       <c r="F2" t="n">
-        <v>41.22846099844006</v>
+        <v>41.22846099844007</v>
       </c>
       <c r="G2" t="n">
-        <v>130.9362825920939</v>
+        <v>130.936282592094</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3175645820604932</v>
+        <v>0.317564582060493</v>
       </c>
       <c r="J2" t="n">
         <v>756</v>
@@ -545,7 +545,7 @@
         <v>10.07230049115156</v>
       </c>
       <c r="C4" t="n">
-        <v>5.242683508196378</v>
+        <v>5.242683508196379</v>
       </c>
       <c r="D4" t="n">
         <v>1.921210859935486</v>
@@ -554,10 +554,10 @@
         <v>0.05508898558465125</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2200042703947638</v>
+        <v>-0.2200042703947656</v>
       </c>
       <c r="G4" t="n">
-        <v>20.36460525269787</v>
+        <v>20.36460525269788</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -570,22 +570,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-27.29781387214566</v>
+        <v>-27.29781387214568</v>
       </c>
       <c r="C5" t="n">
-        <v>5.469594244640416</v>
+        <v>5.469594244640418</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.990829785755028</v>
+        <v>-4.990829785755029</v>
       </c>
       <c r="E5" t="n">
         <v>7.501321823699669e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>-38.03558409989793</v>
+        <v>-38.03558409989795</v>
       </c>
       <c r="G5" t="n">
-        <v>-16.56004364439339</v>
+        <v>-16.5600436443934</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
